--- a/biology/Botanique/Clematis_patens_'Zomoa'/Clematis_patens_'Zomoa'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Zomoa'/Clematis_patens_'Zomoa'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Zomoa%27</t>
+          <t>Clematis_patens_'Zomoa'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite patens 'zomoa' PBR &amp; PPaf, portant le nom commercial de clématite patens Mon amour 'zomoa' PBR &amp; PPaf, est un cultivar de clématite obtenu en 2004 par J.Van Zoest aux Pays-Bas.
 'Zomoa' PBR &amp; PPaf est distribué par les pépinières J.Van Zoest situées à Boskoop aux Pays-Bas. Elle fut présentée au public lors du Plantarium de 2011.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Zomoa%27</t>
+          <t>Clematis_patens_'Zomoa'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite patens 'zomoa' PBR &amp; PPaf dispose d'une floraison bleu violacé. Les étamines sont rouges à l'extrémité puis blanches en se rapprochant du cœur. Elle fait partie des clématites du groupe 2. La fleur de cette clématite a 6 sépales et d'un diamètre de 8 à 12 cm.
 À taille adulte cette clématite s'élance entre 1,50 m et 2 m.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Zomoa%27</t>
+          <t>Clematis_patens_'Zomoa'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Zomoa%27</t>
+          <t>Clematis_patens_'Zomoa'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,9 +586,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Zomoa' PBR &amp; PPaf est protégé par l'Union internationale pour la protection des obtentions végétales sous licence PBR &amp; PPaf sous le numéro : 20120015 du 3 janvier 2012[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Zomoa' PBR &amp; PPaf est protégé par l'Union internationale pour la protection des obtentions végétales sous licence PBR &amp; PPaf sous le numéro : 20120015 du 3 janvier 2012.
 </t>
         </is>
       </c>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Zomoa%27</t>
+          <t>Clematis_patens_'Zomoa'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite Mon amour s'épanouit très bien en pot ou en pleine terre. Cette clématite fleurit sur le bois de l'année précédente au printemps puis sur les pousses de l'année à l'automne.
 Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Zomoa%27</t>
+          <t>Clematis_patens_'Zomoa'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -633,7 +653,9 @@
           <t>Maladies et ravageurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite Mon amour est sensible à l'excès d'eau ce qui pourra provoquer une pourriture du collet de la plante et ainsi la mort de la clématite.
 </t>
